--- a/Archive/Berlin Livibility Index Indicators.xlsx
+++ b/Archive/Berlin Livibility Index Indicators.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="187">
+  <si>
+    <t>liv_spc</t>
+  </si>
+  <si>
+    <t>house_av</t>
+  </si>
   <si>
     <t>Pilar</t>
   </si>
@@ -22,13 +28,22 @@
     <t>Sub-Index</t>
   </si>
   <si>
+    <t>dens</t>
+  </si>
+  <si>
+    <t>hous_allow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weight </t>
   </si>
   <si>
-    <t>liv_spc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category </t>
+    <t>trans_stops</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group of Indicators </t>
   </si>
   <si>
     <t>Indicators</t>
@@ -37,18 +52,6 @@
     <t>Name of the Indicator in the code</t>
   </si>
   <si>
-    <t>house_av</t>
-  </si>
-  <si>
-    <t>dens</t>
-  </si>
-  <si>
-    <t>hous_allow</t>
-  </si>
-  <si>
-    <t>trans_stops</t>
-  </si>
-  <si>
     <t>bike_lines</t>
   </si>
   <si>
@@ -61,18 +64,15 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Type of Indicator</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
+    <t>Physical</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
     <t>hotel_occ</t>
   </si>
   <si>
@@ -91,43 +91,82 @@
     <t>avg_grade</t>
   </si>
   <si>
+    <t>child&lt;3_dc</t>
+  </si>
+  <si>
+    <t>child3-6_dc</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1 Housing avaiability </t>
   </si>
   <si>
+    <t>nr_docs</t>
+  </si>
+  <si>
+    <t>act_sen</t>
+  </si>
+  <si>
+    <t>act_yth</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1.1  Living space </t>
   </si>
   <si>
     <t>lvSpc</t>
   </si>
   <si>
+    <t>traf_acc</t>
+  </si>
+  <si>
     <t>Living space per capita</t>
   </si>
   <si>
-    <t>indDt = data.frame(lvSpc = PerCapita(lvbInDt$SpacePC),  # Calc. liv space/cap.</t>
-  </si>
-  <si>
-    <t>m2/person</t>
+    <t>m2/capita</t>
+  </si>
+  <si>
+    <t>str_cross</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.2. Housing avaiable </t>
   </si>
   <si>
+    <t>crime</t>
+  </si>
+  <si>
     <t>hsAv</t>
   </si>
   <si>
-    <t>child&lt;3_dc</t>
-  </si>
-  <si>
-    <t>child3-6_dc</t>
-  </si>
-  <si>
-    <t>Number of flats,  District size</t>
-  </si>
-  <si>
-    <t>hsAv  = PerCapita(lvbInDt$Flats),  # Calc. nr of flats/cap.</t>
-  </si>
-  <si>
-    <t>nr/ha</t>
+    <t>soc_help</t>
+  </si>
+  <si>
+    <t>handi</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>tax_rev</t>
+  </si>
+  <si>
+    <t>bankr</t>
+  </si>
+  <si>
+    <t>green_spc</t>
+  </si>
+  <si>
+    <t>Number of flats per Ha</t>
+  </si>
+  <si>
+    <t>nr/Ha</t>
+  </si>
+  <si>
+    <t>agr_res</t>
+  </si>
+  <si>
+    <t>trees</t>
   </si>
   <si>
     <t>1.1.3 Density of population</t>
@@ -136,13 +175,13 @@
     <t>dns</t>
   </si>
   <si>
-    <t>Population, District Size</t>
-  </si>
-  <si>
-    <t>dns   = PerHa(lvbInDt$Population),  # Calc. population per ha</t>
-  </si>
-  <si>
-    <t>nr_docs</t>
+    <t>pm_10</t>
+  </si>
+  <si>
+    <t>Population per Ha</t>
+  </si>
+  <si>
+    <t>no_2_x</t>
   </si>
   <si>
     <t>1.2 Housing Inclusivness</t>
@@ -157,76 +196,25 @@
     <t>Housing allowance households</t>
   </si>
   <si>
-    <t>act_sen</t>
-  </si>
-  <si>
-    <t>hsAl  = lvbInDt$Hausehold, # Choose hous. all.</t>
-  </si>
-  <si>
-    <t>total number</t>
-  </si>
-  <si>
-    <t>act_yth</t>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>2. Infrastracture</t>
   </si>
   <si>
     <t xml:space="preserve"> 2. Infrastracture</t>
   </si>
   <si>
-    <t>traf_acc</t>
-  </si>
-  <si>
-    <t>str_cross</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>soc_help</t>
-  </si>
-  <si>
     <t>2.1 Avaiability of Public Transportation Network</t>
   </si>
   <si>
-    <t>handi</t>
-  </si>
-  <si>
-    <t>employ</t>
-  </si>
-  <si>
     <t>2.1.1 Density of  Public Transportation Network</t>
   </si>
   <si>
-    <t>comp</t>
-  </si>
-  <si>
-    <t>tax_rev</t>
-  </si>
-  <si>
     <t>trnDn</t>
   </si>
   <si>
-    <t>Number of Stops</t>
-  </si>
-  <si>
-    <t>bankr</t>
-  </si>
-  <si>
-    <t>trnDn = PerHa(lvbInDt$Transport),  # Calc. den. of pub. trans.</t>
-  </si>
-  <si>
-    <t>green_spc</t>
-  </si>
-  <si>
-    <t>agr_res</t>
-  </si>
-  <si>
-    <t>trees</t>
-  </si>
-  <si>
-    <t>pm_10</t>
-  </si>
-  <si>
-    <t>no_2_x</t>
+    <t>Number of Public Transportation Stops per Ha</t>
   </si>
   <si>
     <t>2.2 Cycling lines avaiability</t>
@@ -238,13 +226,10 @@
     <t>bkLn</t>
   </si>
   <si>
-    <t xml:space="preserve">Meters of cycling lines avaiable </t>
-  </si>
-  <si>
-    <t>bkLn  = PerHa(lvbInDt$Cycle),  # Calc. den. of cycling lines</t>
-  </si>
-  <si>
-    <t>m/km of road</t>
+    <t>Meters of cycling lines avaiable  per Ha</t>
+  </si>
+  <si>
+    <t>m/Ha</t>
   </si>
   <si>
     <t>2.3 Electric car readiness</t>
@@ -256,13 +241,7 @@
     <t>crChr</t>
   </si>
   <si>
-    <t>Number of charging stations planned, District size</t>
-  </si>
-  <si>
-    <t>crChr = PerHa(lvbInDt$Charging),  #  Calc.e-car char.stat./ha</t>
-  </si>
-  <si>
-    <t>total number/ha</t>
+    <t>Number of charging stations per Ha</t>
   </si>
   <si>
     <t>2.4 Number of parking spaces</t>
@@ -274,16 +253,16 @@
     <t>prkSp</t>
   </si>
   <si>
-    <t>Number of parking spaces / Population</t>
-  </si>
-  <si>
-    <t>prkSp = PerCapita(lvbInDt$Parking),  # Calc.nr park. spc./ cap</t>
-  </si>
-  <si>
-    <t>total number/ per  capita</t>
+    <t>Number of parking spaces per Capita</t>
+  </si>
+  <si>
+    <t>nr/capita</t>
   </si>
   <si>
     <t xml:space="preserve">Social </t>
+  </si>
+  <si>
+    <t>3. Social</t>
   </si>
   <si>
     <t xml:space="preserve">3. Culture &amp; Tourism </t>
@@ -299,10 +278,7 @@
     <t>trs</t>
   </si>
   <si>
-    <t>Tourist guests</t>
-  </si>
-  <si>
-    <t>trs   = PerCapita(lvbInDt$Tourists),  # Calc.nr of tour. /cap.</t>
+    <t>Tourist guests per Capita</t>
   </si>
   <si>
     <t xml:space="preserve">3.1.2 Hotel occupancy </t>
@@ -311,13 +287,10 @@
     <t>htlOc</t>
   </si>
   <si>
-    <t>Hotel beds *365/ Overnight stays</t>
-  </si>
-  <si>
-    <t>htlOc = lvbInDt$Stays/(lvbInDt$Hotel*365),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precentage  </t>
+    <t xml:space="preserve">Overnight stays/Hotel beds *365 days </t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t xml:space="preserve">3.2 Culture </t>
@@ -329,7 +302,7 @@
     <t>res</t>
   </si>
   <si>
-    <t>sprCl = PerHa(lvbInDt$Sport),  # Choose nr of sport clubs/ ha</t>
+    <t xml:space="preserve">Number of Restaurants Clubs per Ha </t>
   </si>
   <si>
     <t>3.2.2 Number of Sport Clubs</t>
@@ -338,10 +311,7 @@
     <t>sprCl</t>
   </si>
   <si>
-    <t>Sport Clubs</t>
-  </si>
-  <si>
-    <t>res   = PerHa(lvbInDt$Restaurants),  # Cal.nr of restaur./ha</t>
+    <t xml:space="preserve">Number of Sport Clubs per Ha </t>
   </si>
   <si>
     <t xml:space="preserve">4. Education </t>
@@ -359,9 +329,6 @@
     <t>Pupils/K</t>
   </si>
   <si>
-    <t>std   = lvbInDt$Puplis1000,  # Choose nr of pupils/ K of ppl</t>
-  </si>
-  <si>
     <t>4.1.2 Average grade size</t>
   </si>
   <si>
@@ -371,9 +338,6 @@
     <t>Pupils/ grades</t>
   </si>
   <si>
-    <t>grdSz = lvbInDt$Pupils/lvbInDt$Grades,  # Cal. avg. grade size</t>
-  </si>
-  <si>
     <t>4.2 Early child care avaiability</t>
   </si>
   <si>
@@ -384,9 +348,6 @@
   </si>
   <si>
     <t>% of kids &lt; 3y/o in daycare</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.2  Children  (3 -6 years old) in the daycare </t>
@@ -405,16 +366,13 @@
 </t>
   </si>
   <si>
-    <t>5.1.1 Number of house doctors per 10K</t>
+    <t>5.1.1 Number of house doctors</t>
   </si>
   <si>
     <t>doc</t>
   </si>
   <si>
-    <t>Number of house doctors per 10K pepole</t>
-  </si>
-  <si>
-    <t>num. of doctors/cap</t>
+    <t>Number of house doctors</t>
   </si>
   <si>
     <t xml:space="preserve">5.2 Activeness of citizens
@@ -427,10 +385,7 @@
     <t>actSn</t>
   </si>
   <si>
-    <t>Senior Members of Sport Clubs</t>
-  </si>
-  <si>
-    <t>actSn = lvbInDt$SenSport,  # Choose % of active seniors</t>
+    <t>% of Seniors as Members of Sport Clubs</t>
   </si>
   <si>
     <t>5.2.2 Active youth (&lt;18)</t>
@@ -439,10 +394,7 @@
     <t>actJn</t>
   </si>
   <si>
-    <t>Junior Members of Sport Clubs</t>
-  </si>
-  <si>
-    <t>actJn = lvbInDt$JunSport,  # Choose % of active juniors</t>
+    <t>% of Juniors as Members of Sport Clubs</t>
   </si>
   <si>
     <t>6. Safety</t>
@@ -458,10 +410,7 @@
     <t xml:space="preserve">trf  </t>
   </si>
   <si>
-    <t>Street Traffic Accidents</t>
-  </si>
-  <si>
-    <t>trf   = PerCapita(lvbInDt$Accidents),  # Calc. traff. acc/cap</t>
+    <t>Street Traffic Accidents per Capita</t>
   </si>
   <si>
     <t xml:space="preserve">6.1.2 Number of Street Crossings </t>
@@ -470,10 +419,7 @@
     <t>strCr</t>
   </si>
   <si>
-    <t>Street Crossings</t>
-  </si>
-  <si>
-    <t>strCr = PerHa(lvbInDt$Crossings),  # Calc.nr street cross/ha</t>
+    <t>Street Crossings per Ha</t>
   </si>
   <si>
     <t>6.2 Crime</t>
@@ -485,7 +431,10 @@
     <t>crm</t>
   </si>
   <si>
-    <t>crm   = lvbInDt$Crime,  # Choose criminal offences per 10K ppl</t>
+    <t>Choose criminal offences per 10K ppl</t>
+  </si>
+  <si>
+    <t>nr/10K ppl</t>
   </si>
   <si>
     <t>7. Social Support</t>
@@ -500,10 +449,7 @@
     <t>socHl</t>
   </si>
   <si>
-    <t>Social Help Recipiences , Population</t>
-  </si>
-  <si>
-    <t>socHl = PerCapita(lvbInDt$SocHelp),  # Cal.soc. help rec. /cap</t>
+    <t>Social Help Recipiences  per Capita</t>
   </si>
   <si>
     <t xml:space="preserve">7.2 Handicaps inclusivness </t>
@@ -515,15 +461,15 @@
     <t>dsb</t>
   </si>
   <si>
-    <t>Severly handicapped per K</t>
-  </si>
-  <si>
-    <t>dsb   = lvbInDt$Disabled1000, # Choose sev. handicapped/1K ppl</t>
+    <t>Severly handicapped per 1K ppl</t>
   </si>
   <si>
     <t>Economic</t>
   </si>
   <si>
+    <t>4. Economic</t>
+  </si>
+  <si>
     <t>8. Economic</t>
   </si>
   <si>
@@ -536,10 +482,10 @@
     <t>emp</t>
   </si>
   <si>
-    <t xml:space="preserve">Employment, Population, Non-professional persons </t>
-  </si>
-  <si>
-    <t>emp   = lvbInDt$Employment,  # Choose emp./ 1K ppl cap. of emp.</t>
+    <t>Nr of Employed per 1K capable of employment</t>
+  </si>
+  <si>
+    <t>nr/ 1K ppl</t>
   </si>
   <si>
     <t>8.2 Local Economic Growth</t>
@@ -548,10 +494,7 @@
     <t xml:space="preserve">8.2.1 Number of registered companies </t>
   </si>
   <si>
-    <t>Companies</t>
-  </si>
-  <si>
-    <t>comp  = lvbInDt$Company,  # Choose nr of companies</t>
+    <t>Nr of Companies</t>
   </si>
   <si>
     <t>8.2.2 Taxable Revenu</t>
@@ -560,10 +503,7 @@
     <t>txRv</t>
   </si>
   <si>
-    <t>Taxable Revenue</t>
-  </si>
-  <si>
-    <t>txRv  = lvbInDt$Revenue,  # Choose taxable revenue</t>
+    <t>Taxable Revenue from the companies</t>
   </si>
   <si>
     <t>€</t>
@@ -575,15 +515,15 @@
     <t>bnk</t>
   </si>
   <si>
-    <t># Cal. nr bankr./nr.comp.</t>
-  </si>
-  <si>
-    <t>bnk   = (lvbInDt$Bankruptcy)/(lvbInDt$Company),</t>
+    <t>Nr of bankruptcies per nr of companies</t>
   </si>
   <si>
     <t>Enviromental</t>
   </si>
   <si>
+    <t xml:space="preserve">5. Enviromental </t>
+  </si>
+  <si>
     <t xml:space="preserve">9. Enviromental </t>
   </si>
   <si>
@@ -596,10 +536,7 @@
     <t>grSp</t>
   </si>
   <si>
-    <t>Green Space , District Size</t>
-  </si>
-  <si>
-    <t>grSp  = PerHa(lvbInDt$GreenSp),  #Cal. green space / ha</t>
+    <t>Green Space per Ha</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.2 Land usage </t>
@@ -608,23 +545,20 @@
     <t>agrRe</t>
   </si>
   <si>
-    <t xml:space="preserve">Residential and traffic surface, Agricultural surface
+    <t xml:space="preserve"> Agricultural surface to residential and traffic surface ratio
 </t>
   </si>
   <si>
-    <t># Cal. ratio of agr surface vs. residential &amp; traffic surf.</t>
-  </si>
-  <si>
     <t>9.1.3 Tree per km</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
-    <t xml:space="preserve">Trees per km </t>
-  </si>
-  <si>
-    <t>agrRe = (lvbInDt$AgrSurface)/(lvbInDt$RsSurface),</t>
+    <t>Trees per km of road</t>
+  </si>
+  <si>
+    <t>nr/km</t>
   </si>
   <si>
     <t xml:space="preserve">9.2 Pollution </t>
@@ -639,9 +573,6 @@
     <t>Avergage concentration</t>
   </si>
   <si>
-    <t>tr    = lvbInDt$Trees, # Choose nr of trees per km of the road</t>
-  </si>
-  <si>
     <t>microgram/m3</t>
   </si>
   <si>
@@ -649,12 +580,6 @@
   </si>
   <si>
     <t>pm10</t>
-  </si>
-  <si>
-    <t>pm10  = lvbInDt$PM10,  # Choose PM10 avg. level</t>
-  </si>
-  <si>
-    <t>pm25  = lvbInDt$PM25)  # # Choose PM2.5 avg. level</t>
   </si>
 </sst>
 </file>
@@ -667,10 +592,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -700,81 +625,78 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,904 +734,841 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="17.0"/>
-    <col customWidth="1" min="4" max="4" width="28.14"/>
-    <col customWidth="1" min="5" max="5" width="25.71"/>
-    <col customWidth="1" min="6" max="6" width="19.29"/>
-    <col customWidth="1" min="7" max="7" width="27.57"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="5" width="28.14"/>
+    <col customWidth="1" min="6" max="6" width="25.71"/>
+    <col customWidth="1" min="7" max="7" width="19.29"/>
+    <col customWidth="1" min="8" max="8" width="28.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>0.15</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>29</v>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>41</v>
+      <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C6" s="15">
         <v>0.1</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="E6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
     </row>
     <row r="7">
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="E8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="E9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="16" t="s">
+      <c r="F9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="G9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="6" t="s">
+    </row>
+    <row r="12">
+      <c r="E12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="3" t="s">
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="F13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="E14" s="22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="H14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6" t="s">
+      <c r="I14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-    </row>
-    <row r="13">
-      <c r="E13" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="H15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="I15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="F16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
+      <c r="G16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="H16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="I16" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I17" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-    </row>
-    <row r="15">
-      <c r="E15" s="6" t="s">
+      <c r="E18" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="23" t="s">
+      <c r="I18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+    </row>
+    <row r="19" ht="29.25" customHeight="1">
+      <c r="E19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="3" t="s">
+      <c r="G20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="H20" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="I20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="7" t="s">
+      <c r="E21" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="F21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="I21" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-    </row>
-    <row r="19" ht="29.25" customHeight="1">
-      <c r="D19" s="23" t="s">
+      <c r="H22" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="I22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="4" t="s">
+      <c r="I23" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="8" t="s">
+    </row>
+    <row r="24">
+      <c r="D24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="E24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="G24" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="H24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="I24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G25" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="I25" s="6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="9">
+        <v>149</v>
+      </c>
+      <c r="C26" s="10">
         <v>0.25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>169</v>
+      <c r="D26" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>173</v>
+        <v>151</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="28">
-      <c r="E28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>180</v>
+      <c r="F28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
-      <c r="E29" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="9">
+        <v>167</v>
+      </c>
+      <c r="C30" s="10">
         <v>0.25</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>192</v>
+      <c r="D30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
-      <c r="E31" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>197</v>
+      <c r="F31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>200</v>
+      <c r="F32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>207</v>
+      <c r="E33" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>207</v>
+      <c r="F34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I35" s="3"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="33">
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C25"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A25"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B10:B25"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D34"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C10:C25"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1726,48 +1585,48 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1776,7 +1635,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1791,103 +1650,103 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>33</v>
+      <c r="A15" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>34</v>
+      <c r="A16" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>69</v>
+      <c r="A32" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>70</v>
+      <c r="A33" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
